--- a/td_template_import/nilon.xlsx
+++ b/td_template_import/nilon.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$45</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="18">
-  <si>
-    <t>ĐVT</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
   <si>
     <t>Loại màng</t>
   </si>
@@ -36,43 +33,46 @@
     <t>Khổ màng</t>
   </si>
   <si>
+    <t>Số cuộn</t>
+  </si>
+  <si>
+    <t>Nhiệt</t>
+  </si>
+  <si>
+    <t>7 màu</t>
+  </si>
+  <si>
+    <t>7 màu bông tuyết</t>
+  </si>
+  <si>
+    <t>ngọc</t>
+  </si>
+  <si>
+    <t>Nước</t>
+  </si>
+  <si>
+    <t>lụa TN40</t>
+  </si>
+  <si>
+    <t>lụa TN47</t>
+  </si>
+  <si>
+    <t>lụa TN110</t>
+  </si>
+  <si>
+    <t>lụa TN105</t>
+  </si>
+  <si>
+    <t>lụa TN109</t>
+  </si>
+  <si>
+    <t>Bóng</t>
+  </si>
+  <si>
+    <t>Mờ</t>
+  </si>
+  <si>
     <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Nhiệt</t>
-  </si>
-  <si>
-    <t>7 màu</t>
-  </si>
-  <si>
-    <t>7 màu bông tuyết</t>
-  </si>
-  <si>
-    <t>Nước</t>
-  </si>
-  <si>
-    <t>lụa TN40</t>
-  </si>
-  <si>
-    <t>lụa TN47</t>
-  </si>
-  <si>
-    <t>lụa TN110</t>
-  </si>
-  <si>
-    <t>lụa TN105</t>
-  </si>
-  <si>
-    <t>lụa TN109</t>
-  </si>
-  <si>
-    <t>Bóng</t>
-  </si>
-  <si>
-    <t>Mờ</t>
-  </si>
-  <si>
-    <t>Cái</t>
   </si>
 </sst>
 </file>
@@ -88,14 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
@@ -132,21 +132,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -163,28 +148,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,291 +464,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="A44" sqref="A44:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>54</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>97</v>
+        <v>41.36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>115</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>89</v>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>115</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>80.8</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>115</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
+      <c r="D8" s="2">
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>45.6</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>115</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>146</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>61.5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>65.5</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
@@ -760,566 +753,482 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>65.5</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
-        <v>71</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>67.540000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>72</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>73</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>66.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
       </c>
       <c r="E22" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>78</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>93.56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>64.510000000000005</v>
+        <v>280.89999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>78.7</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>66.5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>88</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>69</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>93.56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>101</v>
-      </c>
-      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>280.89999999999998</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>26</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>33</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>58</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>65.5</v>
+      </c>
+      <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2">
-        <v>62</v>
-      </c>
-      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>65</v>
-      </c>
-      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>67</v>
-      </c>
-      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>54.3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
-        <v>88.5</v>
-      </c>
-      <c r="D37" s="1" t="s">
+        <v>44.5</v>
+      </c>
+      <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
-        <v>44.5</v>
-      </c>
-      <c r="D38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>23</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2">
-        <v>54</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1</v>
+        <v>64.5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>64.5</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>68.5</v>
+      </c>
+      <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>78</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2">
-        <v>79</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2">
+        <v>78</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2">
         <v>89</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>41</v>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>40.6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2">
+        <v>92</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E54"/>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
